--- a/BI/MetaDataAccelerators/MonthlyProjectStatusReport_Metadata_May2016.xlsx
+++ b/BI/MetaDataAccelerators/MonthlyProjectStatusReport_Metadata_May2016.xlsx
@@ -9,17 +9,18 @@
   <sheets>
     <sheet name="MonthlyProjectStatus" sheetId="1" r:id="rId1"/>
     <sheet name="ConsultantMatrix" sheetId="2" r:id="rId2"/>
-    <sheet name="Pivot" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" state="hidden" r:id="rId3"/>
+    <sheet name="Pivot" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="104">
   <si>
     <t>Project ID</t>
   </si>
@@ -55,30 +56,12 @@
     <t>Training Needs</t>
   </si>
   <si>
-    <t>&lt;any training pending&gt;</t>
-  </si>
-  <si>
-    <t>&lt;mention the pending needs and challenges if any&gt;</t>
-  </si>
-  <si>
     <t>Critical Risks</t>
   </si>
   <si>
-    <t>&lt;Count of open risks&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Refer critical risks from PP&gt;</t>
-  </si>
-  <si>
     <t>Critical Issues</t>
   </si>
   <si>
-    <t>&lt;Count of open issues&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Refer critical issues from PP / WSR&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">Review by Competency </t>
   </si>
   <si>
@@ -91,18 +74,12 @@
     <t>PHI</t>
   </si>
   <si>
-    <t>Target &lt;&gt;, Actuals &lt;&gt;</t>
-  </si>
-  <si>
     <t>Open NC / Observations of IQA</t>
   </si>
   <si>
     <t>&lt;Count of NC&gt; and &lt;Audit Score&gt;</t>
   </si>
   <si>
-    <t>&lt;Refer IQA Tool&gt;</t>
-  </si>
-  <si>
     <t>Project Execution</t>
   </si>
   <si>
@@ -130,9 +107,6 @@
     <t>Resourcing</t>
   </si>
   <si>
-    <t>Resourcing is adequate</t>
-  </si>
-  <si>
     <t>Risks</t>
   </si>
   <si>
@@ -140,9 +114,6 @@
   </si>
   <si>
     <t>Issues</t>
-  </si>
-  <si>
-    <t>Project issues need attention</t>
   </si>
   <si>
     <t>Metrics</t>
@@ -389,9 +360,6 @@
   </si>
   <si>
     <t xml:space="preserve">Imran </t>
-  </si>
-  <si>
-    <t>BIBA Metadata Accelerators Offering Monthly Status Report - April 2016</t>
   </si>
   <si>
     <t>Enhancements in RLA for BO 4.1-Test the tool with latest version of BO</t>
@@ -819,6 +787,45 @@
   <si>
     <t>RLA for SSRS Enhancements</t>
   </si>
+  <si>
+    <t>Got Relesed</t>
+  </si>
+  <si>
+    <t>Temporarly released for BNP deployment</t>
+  </si>
+  <si>
+    <t>BIBA Metadata Accelerators Offering Monthly Status Report - May 2016</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  .Net Resource -1 </t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Developed BIMA SSRS Metadata Analysis, Complexity Analysis,Duplicate Analysis Reports &amp; Published into server</t>
+  </si>
+  <si>
+    <t>BO to SSRS-Multiple Tab to Multiple Report and Captured datatype information in BIMA</t>
+  </si>
+  <si>
+    <t>SLA for BO 4.1-created business Layer</t>
+  </si>
+  <si>
+    <t>Web interface development-Developed Home Page and configuration Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIMA for MSTR-Front End Changes and added Metadata viewer link </t>
+  </si>
+  <si>
+    <t>Parthiban Jayaraman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.Net Resource </t>
+  </si>
 </sst>
 </file>
 
@@ -950,12 +957,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -972,6 +973,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="65">
     <border>
@@ -1768,7 +1775,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1776,7 +1783,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1793,7 +1799,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
@@ -1801,9 +1806,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
@@ -1819,16 +1823,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1840,11 +1844,37 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1884,6 +1914,66 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1927,64 +2017,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2070,12 +2109,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent 10" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2118,6 +2165,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2538,12 +2586,12 @@
         <c:gapWidth val="55"/>
         <c:gapDepth val="55"/>
         <c:shape val="pyramid"/>
-        <c:axId val="67274240"/>
-        <c:axId val="67275776"/>
+        <c:axId val="97841920"/>
+        <c:axId val="97843456"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="67274240"/>
+        <c:axId val="97841920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2553,7 +2601,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67275776"/>
+        <c:crossAx val="97843456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2561,7 +2609,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67275776"/>
+        <c:axId val="97843456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2571,13 +2619,14 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67274240"/>
+        <c:crossAx val="97841920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3044,12 +3093,12 @@
         <c:gapWidth val="55"/>
         <c:gapDepth val="55"/>
         <c:shape val="pyramid"/>
-        <c:axId val="67005056"/>
-        <c:axId val="67043712"/>
+        <c:axId val="99002624"/>
+        <c:axId val="99020800"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="67005056"/>
+        <c:axId val="99002624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3059,7 +3108,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67043712"/>
+        <c:crossAx val="99020800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3067,7 +3116,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67043712"/>
+        <c:axId val="99020800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3077,7 +3126,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67005056"/>
+        <c:crossAx val="99002624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3432,6 +3481,23 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H7" totalsRowShown="0">
+  <autoFilter ref="A1:H7"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Role"/>
+    <tableColumn id="3" name="Grade"/>
+    <tableColumn id="4" name="% Allocated"/>
+    <tableColumn id="5" name="Consultant Start Date" dataDxfId="1"/>
+    <tableColumn id="6" name="Consultant Release Date" dataDxfId="0"/>
+    <tableColumn id="7" name="Owning Unit"/>
+    <tableColumn id="8" name="Remarks"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3719,10 +3785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I77"/>
+  <dimension ref="B3:I82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="I63" sqref="I63"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3738,932 +3804,1020 @@
   <sheetData>
     <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="99" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="101"/>
+      <c r="B4" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="109"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="12"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="13"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="43"/>
+      <c r="C6" s="40"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="122"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="130"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="44" t="s">
-        <v>80</v>
+      <c r="C7" s="41" t="s">
+        <v>70</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="122"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="130"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>84</v>
+      <c r="C8" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="122"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="129"/>
+      <c r="I8" s="130"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>82</v>
+      <c r="C9" s="21" t="s">
+        <v>72</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122"/>
+      <c r="G9" s="129"/>
+      <c r="H9" s="129"/>
+      <c r="I9" s="130"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>83</v>
+      <c r="C10" s="22" t="s">
+        <v>102</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="122"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="130"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>81</v>
+      <c r="C11" s="21" t="s">
+        <v>71</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="130"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="24" t="s">
-        <v>83</v>
+      <c r="C12" s="22" t="s">
+        <v>73</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
+      <c r="G12" s="129"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="130"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="45">
+      <c r="B13" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="42">
         <v>42401</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="34"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="31"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="46">
+      <c r="B14" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="43">
         <v>42735</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="34"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="44">
+      <c r="C15" s="41">
         <v>92517</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="34"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="31"/>
     </row>
     <row r="16" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="22"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="20"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="124"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="125"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="132"/>
+      <c r="H17" s="132"/>
+      <c r="I17" s="133"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="117" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="118"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="118"/>
-      <c r="F18" s="118"/>
-      <c r="G18" s="118"/>
-      <c r="H18" s="118"/>
-      <c r="I18" s="119"/>
+      <c r="B18" s="125" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="126"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="126"/>
+      <c r="H18" s="126"/>
+      <c r="I18" s="127"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="120"/>
-      <c r="C19" s="118"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="118"/>
-      <c r="F19" s="118"/>
-      <c r="G19" s="118"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="119"/>
+      <c r="B19" s="128"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="126"/>
+      <c r="H19" s="126"/>
+      <c r="I19" s="127"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="120"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="119"/>
+      <c r="B20" s="128"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="126"/>
+      <c r="H20" s="126"/>
+      <c r="I20" s="127"/>
     </row>
     <row r="21" spans="2:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="120"/>
-      <c r="C21" s="118"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="119"/>
+      <c r="B21" s="128"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="126"/>
+      <c r="H21" s="126"/>
+      <c r="I21" s="127"/>
     </row>
     <row r="22" spans="2:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="120"/>
-      <c r="C22" s="118"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="119"/>
+      <c r="B22" s="128"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="126"/>
+      <c r="H22" s="126"/>
+      <c r="I22" s="127"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="12"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="13"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="67"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="92"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="68" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="70"/>
+      <c r="B25" s="93" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="94"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="95"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="71"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="73"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="98"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="71"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="73"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="97"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="97"/>
+      <c r="H27" s="97"/>
+      <c r="I27" s="98"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="71"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="73"/>
+      <c r="B28" s="96"/>
+      <c r="C28" s="97"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="97"/>
+      <c r="H28" s="97"/>
+      <c r="I28" s="98"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="71"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="73"/>
+      <c r="B29" s="96"/>
+      <c r="C29" s="97"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="97"/>
+      <c r="I29" s="98"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="71"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="73"/>
+      <c r="B30" s="96"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="97"/>
+      <c r="G30" s="97"/>
+      <c r="H30" s="97"/>
+      <c r="I30" s="98"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="71"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="73"/>
+      <c r="B31" s="96"/>
+      <c r="C31" s="97"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="97"/>
+      <c r="H31" s="97"/>
+      <c r="I31" s="98"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="71"/>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="73"/>
+      <c r="B32" s="96"/>
+      <c r="C32" s="97"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="97"/>
+      <c r="G32" s="97"/>
+      <c r="H32" s="97"/>
+      <c r="I32" s="98"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="71"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="73"/>
+      <c r="B33" s="96"/>
+      <c r="C33" s="97"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="97"/>
+      <c r="F33" s="97"/>
+      <c r="G33" s="97"/>
+      <c r="H33" s="97"/>
+      <c r="I33" s="98"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="71"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="73"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="97"/>
+      <c r="G34" s="97"/>
+      <c r="H34" s="97"/>
+      <c r="I34" s="98"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="71"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="73"/>
+      <c r="B35" s="96"/>
+      <c r="C35" s="97"/>
+      <c r="D35" s="97"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="97"/>
+      <c r="G35" s="97"/>
+      <c r="H35" s="97"/>
+      <c r="I35" s="98"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="71"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="73"/>
+      <c r="B36" s="96"/>
+      <c r="C36" s="97"/>
+      <c r="D36" s="97"/>
+      <c r="E36" s="97"/>
+      <c r="F36" s="97"/>
+      <c r="G36" s="97"/>
+      <c r="H36" s="97"/>
+      <c r="I36" s="98"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="71"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="73"/>
+      <c r="B37" s="96"/>
+      <c r="C37" s="97"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="97"/>
+      <c r="F37" s="97"/>
+      <c r="G37" s="97"/>
+      <c r="H37" s="97"/>
+      <c r="I37" s="98"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="71"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="72"/>
-      <c r="I38" s="73"/>
+      <c r="B38" s="96"/>
+      <c r="C38" s="97"/>
+      <c r="D38" s="97"/>
+      <c r="E38" s="97"/>
+      <c r="F38" s="97"/>
+      <c r="G38" s="97"/>
+      <c r="H38" s="97"/>
+      <c r="I38" s="98"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="71"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="73"/>
+      <c r="B39" s="96"/>
+      <c r="C39" s="97"/>
+      <c r="D39" s="97"/>
+      <c r="E39" s="97"/>
+      <c r="F39" s="97"/>
+      <c r="G39" s="97"/>
+      <c r="H39" s="97"/>
+      <c r="I39" s="98"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="71"/>
-      <c r="C40" s="72"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="73"/>
+      <c r="B40" s="96"/>
+      <c r="C40" s="97"/>
+      <c r="D40" s="97"/>
+      <c r="E40" s="97"/>
+      <c r="F40" s="97"/>
+      <c r="G40" s="97"/>
+      <c r="H40" s="97"/>
+      <c r="I40" s="98"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="71"/>
-      <c r="C41" s="72"/>
-      <c r="D41" s="72"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="72"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="73"/>
+      <c r="B41" s="96"/>
+      <c r="C41" s="97"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="97"/>
+      <c r="F41" s="97"/>
+      <c r="G41" s="97"/>
+      <c r="H41" s="97"/>
+      <c r="I41" s="98"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="71"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="72"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="73"/>
+      <c r="B42" s="96"/>
+      <c r="C42" s="97"/>
+      <c r="D42" s="97"/>
+      <c r="E42" s="97"/>
+      <c r="F42" s="97"/>
+      <c r="G42" s="97"/>
+      <c r="H42" s="97"/>
+      <c r="I42" s="98"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="71"/>
-      <c r="C43" s="72"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="72"/>
-      <c r="F43" s="72"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="73"/>
+      <c r="B43" s="96"/>
+      <c r="C43" s="97"/>
+      <c r="D43" s="97"/>
+      <c r="E43" s="97"/>
+      <c r="F43" s="97"/>
+      <c r="G43" s="97"/>
+      <c r="H43" s="97"/>
+      <c r="I43" s="98"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="71"/>
-      <c r="C44" s="72"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="72"/>
-      <c r="I44" s="73"/>
+      <c r="B44" s="96"/>
+      <c r="C44" s="97"/>
+      <c r="D44" s="97"/>
+      <c r="E44" s="97"/>
+      <c r="F44" s="97"/>
+      <c r="G44" s="97"/>
+      <c r="H44" s="97"/>
+      <c r="I44" s="98"/>
     </row>
     <row r="45" spans="2:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="71"/>
-      <c r="C45" s="72"/>
-      <c r="D45" s="72"/>
-      <c r="E45" s="72"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="72"/>
-      <c r="H45" s="72"/>
-      <c r="I45" s="73"/>
+      <c r="B45" s="96"/>
+      <c r="C45" s="97"/>
+      <c r="D45" s="97"/>
+      <c r="E45" s="97"/>
+      <c r="F45" s="97"/>
+      <c r="G45" s="97"/>
+      <c r="H45" s="97"/>
+      <c r="I45" s="98"/>
     </row>
     <row r="46" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="71"/>
-      <c r="C46" s="72"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="72"/>
-      <c r="F46" s="72"/>
-      <c r="G46" s="72"/>
-      <c r="H46" s="72"/>
-      <c r="I46" s="73"/>
+      <c r="B46" s="96"/>
+      <c r="C46" s="97"/>
+      <c r="D46" s="97"/>
+      <c r="E46" s="97"/>
+      <c r="F46" s="97"/>
+      <c r="G46" s="97"/>
+      <c r="H46" s="97"/>
+      <c r="I46" s="98"/>
     </row>
     <row r="47" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="71"/>
-      <c r="C47" s="72"/>
-      <c r="D47" s="72"/>
-      <c r="E47" s="72"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="72"/>
-      <c r="H47" s="72"/>
-      <c r="I47" s="73"/>
+      <c r="B47" s="96"/>
+      <c r="C47" s="97"/>
+      <c r="D47" s="97"/>
+      <c r="E47" s="97"/>
+      <c r="F47" s="97"/>
+      <c r="G47" s="97"/>
+      <c r="H47" s="97"/>
+      <c r="I47" s="98"/>
     </row>
     <row r="48" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="71"/>
-      <c r="C48" s="72"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="72"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="72"/>
-      <c r="H48" s="72"/>
-      <c r="I48" s="73"/>
+      <c r="B48" s="96"/>
+      <c r="C48" s="97"/>
+      <c r="D48" s="97"/>
+      <c r="E48" s="97"/>
+      <c r="F48" s="97"/>
+      <c r="G48" s="97"/>
+      <c r="H48" s="97"/>
+      <c r="I48" s="98"/>
     </row>
     <row r="49" spans="2:9" ht="9.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="74"/>
-      <c r="C49" s="75"/>
-      <c r="D49" s="75"/>
-      <c r="E49" s="75"/>
-      <c r="F49" s="75"/>
-      <c r="G49" s="75"/>
-      <c r="H49" s="75"/>
-      <c r="I49" s="76"/>
+      <c r="B49" s="99"/>
+      <c r="C49" s="100"/>
+      <c r="D49" s="100"/>
+      <c r="E49" s="100"/>
+      <c r="F49" s="100"/>
+      <c r="G49" s="100"/>
+      <c r="H49" s="100"/>
+      <c r="I49" s="101"/>
     </row>
     <row r="50" spans="2:9" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="12"/>
+      <c r="B50" s="11"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
-      <c r="I50" s="13"/>
+      <c r="I50" s="12"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="C51" s="63"/>
-      <c r="D51" s="63"/>
-      <c r="E51" s="63"/>
-      <c r="F51" s="63"/>
-      <c r="G51" s="63"/>
-      <c r="H51" s="63"/>
-      <c r="I51" s="64"/>
+      <c r="B51" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="68"/>
+      <c r="D51" s="68"/>
+      <c r="E51" s="68"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="68"/>
+      <c r="H51" s="68"/>
+      <c r="I51" s="69"/>
     </row>
     <row r="52" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" s="120"/>
+      <c r="E52" s="115"/>
+      <c r="F52" s="115"/>
+      <c r="G52" s="115"/>
+      <c r="H52" s="115"/>
+      <c r="I52" s="121"/>
+    </row>
+    <row r="53" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="112" t="s">
+      <c r="C53" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53" s="122"/>
+      <c r="E53" s="123"/>
+      <c r="F53" s="123"/>
+      <c r="G53" s="123"/>
+      <c r="H53" s="123"/>
+      <c r="I53" s="124"/>
+    </row>
+    <row r="54" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="107"/>
-      <c r="F52" s="107"/>
-      <c r="G52" s="107"/>
-      <c r="H52" s="107"/>
-      <c r="I52" s="113"/>
-    </row>
-    <row r="53" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="16" t="s">
+      <c r="C54" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" s="120"/>
+      <c r="E54" s="115"/>
+      <c r="F54" s="115"/>
+      <c r="G54" s="115"/>
+      <c r="H54" s="115"/>
+      <c r="I54" s="121"/>
+    </row>
+    <row r="55" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D55" s="122"/>
+      <c r="E55" s="123"/>
+      <c r="F55" s="123"/>
+      <c r="G55" s="123"/>
+      <c r="H55" s="123"/>
+      <c r="I55" s="124"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C56" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="114" t="s">
+      <c r="D56" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="115"/>
-      <c r="F53" s="115"/>
-      <c r="G53" s="115"/>
-      <c r="H53" s="115"/>
-      <c r="I53" s="116"/>
-    </row>
-    <row r="54" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="15" t="s">
+      <c r="E56" s="115"/>
+      <c r="F56" s="115"/>
+      <c r="G56" s="115"/>
+      <c r="H56" s="115"/>
+      <c r="I56" s="121"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C57" s="56">
+        <v>85.6</v>
+      </c>
+      <c r="D57" s="122"/>
+      <c r="E57" s="123"/>
+      <c r="F57" s="123"/>
+      <c r="G57" s="123"/>
+      <c r="H57" s="123"/>
+      <c r="I57" s="124"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D54" s="112" t="s">
+      <c r="C58" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E54" s="107"/>
-      <c r="F54" s="107"/>
-      <c r="G54" s="107"/>
-      <c r="H54" s="107"/>
-      <c r="I54" s="113"/>
-    </row>
-    <row r="55" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="114"/>
-      <c r="E55" s="115"/>
-      <c r="F55" s="115"/>
-      <c r="G55" s="115"/>
-      <c r="H55" s="115"/>
-      <c r="I55" s="116"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D56" s="112" t="s">
-        <v>21</v>
-      </c>
-      <c r="E56" s="107"/>
-      <c r="F56" s="107"/>
-      <c r="G56" s="107"/>
-      <c r="H56" s="107"/>
-      <c r="I56" s="113"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D57" s="114"/>
-      <c r="E57" s="115"/>
-      <c r="F57" s="115"/>
-      <c r="G57" s="115"/>
-      <c r="H57" s="115"/>
-      <c r="I57" s="116"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D58" s="112" t="s">
-        <v>26</v>
-      </c>
-      <c r="E58" s="107"/>
-      <c r="F58" s="107"/>
-      <c r="G58" s="107"/>
-      <c r="H58" s="107"/>
-      <c r="I58" s="113"/>
+      <c r="D58" s="120"/>
+      <c r="E58" s="115"/>
+      <c r="F58" s="115"/>
+      <c r="G58" s="115"/>
+      <c r="H58" s="115"/>
+      <c r="I58" s="121"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="12"/>
+      <c r="B59" s="11"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
-      <c r="I59" s="13"/>
+      <c r="I59" s="12"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="109" t="s">
+      <c r="B60" s="117" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="118"/>
+      <c r="D60" s="118"/>
+      <c r="E60" s="118"/>
+      <c r="F60" s="119"/>
+      <c r="G60" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I60" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="102" t="s">
+        <v>100</v>
+      </c>
+      <c r="C61" s="58"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="58"/>
+      <c r="F61" s="103"/>
+      <c r="G61" s="54">
+        <v>42502</v>
+      </c>
+      <c r="H61" s="54">
+        <v>42503</v>
+      </c>
+      <c r="I61" s="53" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="104" t="s">
+        <v>97</v>
+      </c>
+      <c r="C62" s="105"/>
+      <c r="D62" s="105"/>
+      <c r="E62" s="105"/>
+      <c r="F62" s="106"/>
+      <c r="G62" s="55">
+        <v>42501</v>
+      </c>
+      <c r="H62" s="55">
+        <v>42501</v>
+      </c>
+      <c r="I62" s="53" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="C63" s="71"/>
+      <c r="D63" s="71"/>
+      <c r="E63" s="71"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="54">
+        <v>42507</v>
+      </c>
+      <c r="H63" s="54">
+        <v>42508</v>
+      </c>
+      <c r="I63" s="53" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C64" s="74"/>
+      <c r="D64" s="74"/>
+      <c r="E64" s="74"/>
+      <c r="F64" s="75"/>
+      <c r="G64" s="55">
+        <v>42517</v>
+      </c>
+      <c r="H64" s="55">
+        <v>42517</v>
+      </c>
+      <c r="I64" s="53" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="70" t="s">
+        <v>99</v>
+      </c>
+      <c r="C65" s="71"/>
+      <c r="D65" s="71"/>
+      <c r="E65" s="71"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="54">
+        <v>42514</v>
+      </c>
+      <c r="H65" s="54">
+        <v>42514</v>
+      </c>
+      <c r="I65" s="53" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="73" t="s">
+        <v>90</v>
+      </c>
+      <c r="C66" s="74"/>
+      <c r="D66" s="74"/>
+      <c r="E66" s="74"/>
+      <c r="F66" s="75"/>
+      <c r="G66" s="55">
+        <v>42537</v>
+      </c>
+      <c r="H66" s="55">
+        <v>42537</v>
+      </c>
+      <c r="I66" s="51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" s="71"/>
+      <c r="D67" s="71"/>
+      <c r="E67" s="71"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="54">
+        <v>42531</v>
+      </c>
+      <c r="H67" s="54">
+        <v>42531</v>
+      </c>
+      <c r="I67" s="52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="C68" s="74"/>
+      <c r="D68" s="74"/>
+      <c r="E68" s="74"/>
+      <c r="F68" s="75"/>
+      <c r="G68" s="55">
+        <v>42551</v>
+      </c>
+      <c r="H68" s="55">
+        <v>42551</v>
+      </c>
+      <c r="I68" s="51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="C69" s="71"/>
+      <c r="D69" s="71"/>
+      <c r="E69" s="71"/>
+      <c r="F69" s="72"/>
+      <c r="G69" s="54">
+        <v>42551</v>
+      </c>
+      <c r="H69" s="54">
+        <v>42551</v>
+      </c>
+      <c r="I69" s="52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B70" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="C70" s="74"/>
+      <c r="D70" s="74"/>
+      <c r="E70" s="74"/>
+      <c r="F70" s="75"/>
+      <c r="G70" s="55">
+        <v>42531</v>
+      </c>
+      <c r="H70" s="55">
+        <v>42531</v>
+      </c>
+      <c r="I70" s="51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="11"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="12"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="82" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" s="116"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="110" t="s">
+        <v>31</v>
+      </c>
+      <c r="F72" s="111"/>
+      <c r="G72" s="111"/>
+      <c r="H72" s="111"/>
+      <c r="I72" s="112"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D73" s="28"/>
+      <c r="E73" s="113" t="s">
+        <v>32</v>
+      </c>
+      <c r="F73" s="114"/>
+      <c r="G73" s="60">
+        <v>0</v>
+      </c>
+      <c r="H73" s="61"/>
+      <c r="I73" s="62"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74" s="135" t="s">
+        <v>103</v>
+      </c>
+      <c r="D74" s="28"/>
+      <c r="E74" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F74" s="23"/>
+      <c r="G74" s="88">
+        <v>100</v>
+      </c>
+      <c r="H74" s="74"/>
+      <c r="I74" s="89"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C60" s="110"/>
-      <c r="D60" s="110"/>
-      <c r="E60" s="110"/>
-      <c r="F60" s="111"/>
-      <c r="G60" s="10" t="s">
+      <c r="C75" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H60" s="11" t="s">
+      <c r="D75" s="28"/>
+      <c r="E75" s="115" t="s">
+        <v>34</v>
+      </c>
+      <c r="F75" s="115"/>
+      <c r="G75" s="57">
+        <v>100</v>
+      </c>
+      <c r="H75" s="58"/>
+      <c r="I75" s="59"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I60" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="77" t="s">
-        <v>101</v>
-      </c>
-      <c r="C61" s="53"/>
-      <c r="D61" s="53"/>
-      <c r="E61" s="53"/>
-      <c r="F61" s="78"/>
-      <c r="G61" s="48">
-        <v>42537</v>
-      </c>
-      <c r="H61" s="48">
-        <v>42537</v>
-      </c>
-      <c r="I61" s="18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="79" t="s">
-        <v>96</v>
-      </c>
-      <c r="C62" s="80"/>
-      <c r="D62" s="80"/>
-      <c r="E62" s="80"/>
-      <c r="F62" s="81"/>
-      <c r="G62" s="48">
-        <v>42531</v>
-      </c>
-      <c r="H62" s="48">
-        <v>42531</v>
-      </c>
-      <c r="I62" s="18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="82" t="s">
-        <v>100</v>
-      </c>
-      <c r="C63" s="83"/>
-      <c r="D63" s="83"/>
-      <c r="E63" s="83"/>
-      <c r="F63" s="84"/>
-      <c r="G63" s="48">
-        <v>42551</v>
-      </c>
-      <c r="H63" s="48">
-        <v>42551</v>
-      </c>
-      <c r="I63" s="18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="79" t="s">
-        <v>97</v>
-      </c>
-      <c r="C64" s="80"/>
-      <c r="D64" s="80"/>
-      <c r="E64" s="80"/>
-      <c r="F64" s="81"/>
-      <c r="G64" s="48">
-        <v>42551</v>
-      </c>
-      <c r="H64" s="48">
-        <v>42551</v>
-      </c>
-      <c r="I64" s="18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="82" t="s">
-        <v>98</v>
-      </c>
-      <c r="C65" s="83"/>
-      <c r="D65" s="83"/>
-      <c r="E65" s="83"/>
-      <c r="F65" s="84"/>
-      <c r="G65" s="47">
-        <v>42531</v>
-      </c>
-      <c r="H65" s="47">
-        <v>42531</v>
-      </c>
-      <c r="I65" s="18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="12"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="13"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B67" s="91" t="s">
-        <v>32</v>
-      </c>
-      <c r="C67" s="108"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="102" t="s">
-        <v>41</v>
-      </c>
-      <c r="F67" s="103"/>
-      <c r="G67" s="103"/>
-      <c r="H67" s="103"/>
-      <c r="I67" s="104"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D68" s="31"/>
-      <c r="E68" s="105" t="s">
-        <v>42</v>
-      </c>
-      <c r="F68" s="106"/>
-      <c r="G68" s="55"/>
-      <c r="H68" s="56"/>
-      <c r="I68" s="57"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="16" t="s">
+      <c r="C76" s="6"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="C69" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D69" s="31"/>
-      <c r="E69" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F69" s="25"/>
-      <c r="G69" s="97"/>
-      <c r="H69" s="80"/>
-      <c r="I69" s="98"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D70" s="31"/>
-      <c r="E70" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="F70" s="107"/>
-      <c r="G70" s="52"/>
-      <c r="H70" s="53"/>
-      <c r="I70" s="54"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D71" s="31"/>
-      <c r="E71" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="F71" s="95"/>
-      <c r="G71" s="95"/>
-      <c r="H71" s="95"/>
-      <c r="I71" s="96"/>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="12"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="31"/>
-      <c r="E72" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G72" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H72" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I72" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="12"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="27"/>
-      <c r="I73" s="28"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74" s="91" t="s">
-        <v>51</v>
-      </c>
-      <c r="C74" s="92"/>
-      <c r="D74" s="92"/>
-      <c r="E74" s="92"/>
-      <c r="F74" s="92"/>
-      <c r="G74" s="92"/>
-      <c r="H74" s="92"/>
-      <c r="I74" s="93"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="C75" s="61"/>
-      <c r="D75" s="88"/>
-      <c r="E75" s="89"/>
-      <c r="F75" s="89"/>
-      <c r="G75" s="89"/>
-      <c r="H75" s="89"/>
-      <c r="I75" s="90"/>
-    </row>
-    <row r="76" spans="2:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="C76" s="59"/>
-      <c r="D76" s="85" t="s">
-        <v>93</v>
-      </c>
-      <c r="E76" s="86"/>
       <c r="F76" s="86"/>
       <c r="G76" s="86"/>
       <c r="H76" s="86"/>
       <c r="I76" s="87"/>
     </row>
-    <row r="77" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="20"/>
-      <c r="C77" s="21"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="21"/>
-      <c r="I77" s="22"/>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="11"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I77" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="11"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="25"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="C79" s="83"/>
+      <c r="D79" s="83"/>
+      <c r="E79" s="83"/>
+      <c r="F79" s="83"/>
+      <c r="G79" s="83"/>
+      <c r="H79" s="83"/>
+      <c r="I79" s="84"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B80" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="C80" s="66"/>
+      <c r="D80" s="79"/>
+      <c r="E80" s="80"/>
+      <c r="F80" s="80"/>
+      <c r="G80" s="80"/>
+      <c r="H80" s="80"/>
+      <c r="I80" s="81"/>
+    </row>
+    <row r="81" spans="2:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="C81" s="64"/>
+      <c r="D81" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="E81" s="77"/>
+      <c r="F81" s="77"/>
+      <c r="G81" s="77"/>
+      <c r="H81" s="77"/>
+      <c r="I81" s="78"/>
+    </row>
+    <row r="82" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="18"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="38">
     <mergeCell ref="B4:I4"/>
-    <mergeCell ref="E67:I67"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="E72:I72"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="B72:C72"/>
     <mergeCell ref="B60:F60"/>
     <mergeCell ref="D52:I52"/>
     <mergeCell ref="D53:I53"/>
@@ -4677,21 +4831,26 @@
     <mergeCell ref="D55:I55"/>
     <mergeCell ref="B24:I24"/>
     <mergeCell ref="B25:I49"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B68:F68"/>
     <mergeCell ref="B61:F61"/>
     <mergeCell ref="B62:F62"/>
     <mergeCell ref="B63:F63"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B51:I51"/>
     <mergeCell ref="B64:F64"/>
     <mergeCell ref="B65:F65"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D75:I75"/>
-    <mergeCell ref="B74:I74"/>
-    <mergeCell ref="E71:I71"/>
-    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B51:I51"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="D81:I81"/>
+    <mergeCell ref="D80:I80"/>
+    <mergeCell ref="B79:I79"/>
+    <mergeCell ref="E76:I76"/>
+    <mergeCell ref="G74:I74"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9">
@@ -4709,7 +4868,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4721,130 +4880,130 @@
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
     <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.140625" customWidth="1"/>
     <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
+      <c r="A1" s="134" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D3">
         <v>100</v>
       </c>
-      <c r="E3" s="50">
+      <c r="E3" s="45">
         <v>42402</v>
       </c>
-      <c r="F3" s="50">
+      <c r="F3" s="45">
         <v>42735</v>
       </c>
       <c r="G3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D4">
         <v>100</v>
       </c>
-      <c r="E4" s="50">
+      <c r="E4" s="45">
         <v>42402</v>
       </c>
-      <c r="F4" s="50">
+      <c r="F4" s="45">
         <v>42735</v>
       </c>
       <c r="G4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D5">
         <v>100</v>
       </c>
-      <c r="E5" s="50">
+      <c r="E5" s="45">
         <v>42402</v>
       </c>
-      <c r="F5" s="50">
+      <c r="F5" s="45">
         <v>42735</v>
       </c>
       <c r="G5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="49">
         <v>100</v>
       </c>
       <c r="E6" s="50">
@@ -4853,58 +5012,64 @@
       <c r="F6" s="50">
         <v>42735</v>
       </c>
-      <c r="G6" t="s">
-        <v>91</v>
+      <c r="G6" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="48" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D7">
         <v>100</v>
       </c>
-      <c r="E7" s="50">
+      <c r="E7" s="45">
         <v>42402</v>
       </c>
-      <c r="F7" s="50">
+      <c r="F7" s="45">
         <v>42735</v>
       </c>
       <c r="G7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="46">
+        <v>100</v>
+      </c>
+      <c r="E8" s="47">
+        <v>42402</v>
+      </c>
+      <c r="F8" s="47">
+        <v>42461</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="46" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8">
-        <v>100</v>
-      </c>
-      <c r="E8" s="50">
-        <v>42402</v>
-      </c>
-      <c r="F8" s="50">
-        <v>42735</v>
-      </c>
-      <c r="G8" t="s">
-        <v>91</v>
-      </c>
-    </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D9" s="49"/>
+      <c r="D9" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4915,6 +5080,176 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2" s="45">
+        <v>42402</v>
+      </c>
+      <c r="F2" s="45">
+        <v>42735</v>
+      </c>
+      <c r="G2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3" s="45">
+        <v>42402</v>
+      </c>
+      <c r="F3" s="45">
+        <v>42735</v>
+      </c>
+      <c r="G3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4" s="45">
+        <v>42402</v>
+      </c>
+      <c r="F4" s="45">
+        <v>42735</v>
+      </c>
+      <c r="G4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5" s="45">
+        <v>42402</v>
+      </c>
+      <c r="F5" s="45">
+        <v>42735</v>
+      </c>
+      <c r="G5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6" s="45">
+        <v>42402</v>
+      </c>
+      <c r="F6" s="45">
+        <v>42735</v>
+      </c>
+      <c r="G6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G11"/>
   <sheetViews>
@@ -4930,124 +5265,124 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
-        <v>72</v>
+      <c r="A3" s="33" t="s">
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="35">
+      <c r="B4" s="32">
         <v>6</v>
       </c>
-      <c r="E4" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="40">
+      <c r="E4" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="37">
         <v>0</v>
       </c>
-      <c r="G4" s="41">
+      <c r="G4" s="38">
         <f>F4/(SUM($F$4:$F$12))</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="35">
+      <c r="A5" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="32">
         <v>6</v>
       </c>
-      <c r="E5" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="40">
+      <c r="E5" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="37">
         <v>5</v>
       </c>
-      <c r="G5" s="41">
+      <c r="G5" s="38">
         <f t="shared" ref="G5:G11" si="0">F5/(SUM($F$4:$F$12))</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E6" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="40">
+      <c r="E6" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="37">
         <v>0</v>
       </c>
-      <c r="G6" s="41">
+      <c r="G6" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E7" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="40">
+      <c r="E7" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="37">
         <v>0</v>
       </c>
-      <c r="G7" s="41">
+      <c r="G7" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E8" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="40">
+      <c r="E8" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="37">
         <v>0</v>
       </c>
-      <c r="G8" s="41">
+      <c r="G8" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E9" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="40">
+      <c r="E9" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="37">
         <v>0</v>
       </c>
-      <c r="G9" s="41">
+      <c r="G9" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E10" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="40">
+      <c r="E10" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="37">
         <v>0</v>
       </c>
-      <c r="G10" s="41">
+      <c r="G10" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E11" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41">
+      <c r="E11" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="37"/>
+      <c r="G11" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
